--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_region_name.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_region_name.xlsx
@@ -448,31 +448,31 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G2">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="H2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="I2">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="J2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K2">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="L2">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="M2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="N2">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F5">
         <v>0</v>
